--- a/target/test-classes/org/squashtest/tm/plugin/custom/export/convergence/generateExcelFilePrepublication.xlsx
+++ b/target/test-classes/org/squashtest/tm/plugin/custom/export/convergence/generateExcelFilePrepublication.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Profil</t>
   </si>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,176 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
@@ -1108,16 +938,16 @@
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>4</v>
@@ -1126,42 +956,42 @@
         <v>20</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1181,160 +1011,15 @@
         <v>4</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="109" t="s">
         <v>24</v>
       </c>
     </row>
